--- a/A-工作汇报.xlsx
+++ b/A-工作汇报.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017年工作日报" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="424">
   <si>
     <t>工作日报</t>
   </si>
@@ -2289,6 +2289,20 @@
   </si>
   <si>
     <t>1，修改项目以及集群安装过程中出现Bug的脚本。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，修改项目以及集群安装过程中出现Bug的脚本。
+2，评估后续这个版本数据迁移.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.phoenix 中的jdbc url 需要根据集群进行自动配置。已经修改，代码已经上库。
+2，数据迁移主要涉及parquet 文件，hbase 静态库，es 动态库索引数据迁移。Es 找到了一个go 语言工具进行迁移，parquet 需要转换特征值，以及进行添加字段。Hbase静态库需要写程序进行数据导入导出。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，数据迁移方案的Demo 工程测试。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2734,6 +2748,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2742,9 +2759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4577,18 +4591,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -4622,17 +4636,17 @@
       <c r="C3" s="46">
         <v>42912</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -4666,11 +4680,11 @@
       <c r="C5" s="46">
         <v>42912</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="55" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="54"/>
@@ -4710,11 +4724,11 @@
       <c r="C7" s="46">
         <v>42912</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="55" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="54"/>
@@ -4754,11 +4768,11 @@
       <c r="C9" s="46">
         <v>42933</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="55" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="55" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="54"/>
@@ -5384,6 +5398,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="D34:E34"/>
@@ -5400,63 +5471,6 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5470,7 +5484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:F35"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6109,13 +6123,25 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+    <row r="36" spans="1:6" ht="96" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43186</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="19"/>
@@ -24091,18 +24117,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -24136,17 +24162,17 @@
       <c r="C3" s="46">
         <v>43122</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -24180,17 +24206,17 @@
       <c r="C5" s="46">
         <v>43127</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="44" t="s">
@@ -24224,17 +24250,17 @@
       <c r="C7" s="46">
         <v>43127</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="44" t="s">
@@ -24268,17 +24294,17 @@
       <c r="C9" s="46">
         <v>43157</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="44" t="s">
@@ -24312,17 +24338,17 @@
       <c r="C11" s="46">
         <v>43161</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="44" t="s">
@@ -24356,17 +24382,17 @@
       <c r="C13" s="46">
         <v>43161</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="44" t="s">
@@ -24400,20 +24426,33 @@
       <c r="C15" s="46">
         <v>43183</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="A1:J1"/>
@@ -24430,19 +24469,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-工作汇报.xlsx
+++ b/A-工作汇报.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="427">
   <si>
     <t>工作日报</t>
   </si>
@@ -2303,6 +2303,20 @@
   </si>
   <si>
     <t>1，数据迁移方案的Demo 工程测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，数据迁移方案的Demo 工程测试。
+2, jenkins 尝试搭建。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，写了elastic 数据导出Demo 44万的数据需要40秒。
+2，jenkins 工程搭建，以及尝试构建项目工程。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，优化elastic 数据导出工具。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2748,9 +2762,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,6 +2770,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4591,18 +4605,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -4636,17 +4650,17 @@
       <c r="C3" s="46">
         <v>42912</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -4680,11 +4694,11 @@
       <c r="C5" s="46">
         <v>42912</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="58" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="58" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="54"/>
@@ -4724,11 +4738,11 @@
       <c r="C7" s="46">
         <v>42912</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="58" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="54"/>
@@ -4768,11 +4782,11 @@
       <c r="C9" s="46">
         <v>42933</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="58" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="58" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="54"/>
@@ -5398,42 +5412,27 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="D13:E13"/>
@@ -5450,27 +5449,42 @@
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5484,7 +5498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6143,13 +6157,25 @@
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+    <row r="37" spans="1:6" ht="40.5">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43186</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="19"/>
@@ -24117,18 +24143,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -24162,17 +24188,17 @@
       <c r="C3" s="46">
         <v>43122</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -24206,17 +24232,17 @@
       <c r="C5" s="46">
         <v>43127</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="44" t="s">
@@ -24250,17 +24276,17 @@
       <c r="C7" s="46">
         <v>43127</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="56" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="44" t="s">
@@ -24294,17 +24320,17 @@
       <c r="C9" s="46">
         <v>43157</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="44" t="s">
@@ -24338,17 +24364,17 @@
       <c r="C11" s="46">
         <v>43161</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="56" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="44" t="s">
@@ -24382,17 +24408,17 @@
       <c r="C13" s="46">
         <v>43161</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="44" t="s">
@@ -24426,35 +24452,20 @@
       <c r="C15" s="46">
         <v>43183</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -24469,6 +24480,21 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-工作汇报.xlsx
+++ b/A-工作汇报.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="431">
   <si>
     <t>工作日报</t>
   </si>
@@ -2317,6 +2317,24 @@
   </si>
   <si>
     <t>1，优化elastic 数据导出工具。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，优化elastic 数据导出工具。
+2, 南昌parquet 数据迁移代码编写。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，elasticsearch 数据导出工具已经写好，44万数据导出，需要花费26秒左右。
+2，南昌数据parquet 数据迁移，代码已经编写，正在造数据进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，完成parquet数据迁移方案的验证。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2762,6 +2780,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2770,9 +2791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4605,18 +4623,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -4650,17 +4668,17 @@
       <c r="C3" s="46">
         <v>42912</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -4694,11 +4712,11 @@
       <c r="C5" s="46">
         <v>42912</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="55" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="54"/>
@@ -4738,11 +4756,11 @@
       <c r="C7" s="46">
         <v>42912</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="55" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="54"/>
@@ -4782,11 +4800,11 @@
       <c r="C9" s="46">
         <v>42933</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="55" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="55" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="54"/>
@@ -5412,6 +5430,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="D34:E34"/>
@@ -5428,63 +5503,6 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5498,7 +5516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6177,13 +6195,25 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+    <row r="38" spans="1:6" ht="54">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43188</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="19"/>
@@ -24143,18 +24173,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="44" t="s">
@@ -24188,17 +24218,17 @@
       <c r="C3" s="46">
         <v>43122</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="44" t="s">
@@ -24232,17 +24262,17 @@
       <c r="C5" s="46">
         <v>43127</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="44" t="s">
@@ -24276,17 +24306,17 @@
       <c r="C7" s="46">
         <v>43127</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="44" t="s">
@@ -24320,17 +24350,17 @@
       <c r="C9" s="46">
         <v>43157</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="44" t="s">
@@ -24364,17 +24394,17 @@
       <c r="C11" s="46">
         <v>43161</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="58"/>
+      <c r="F11" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="44" t="s">
@@ -24408,17 +24438,17 @@
       <c r="C13" s="46">
         <v>43161</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="44" t="s">
@@ -24452,20 +24482,35 @@
       <c r="C15" s="46">
         <v>43183</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -24480,21 +24525,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-工作汇报.xlsx
+++ b/A-工作汇报.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2017年工作日报" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="时间表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="435">
   <si>
     <t>工作日报</t>
   </si>
@@ -2336,6 +2337,27 @@
   <si>
     <t>1，完成parquet数据迁移方案的验证。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作内容（2018/3/26--2018/4-01）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划（2018/4-02--2018/4-08）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,测试先进行建立Hbase 表格然后进行phoenix 映射，看是否可以进行映射数组。
+2，项目部署脚本Bug 修改。
+3，集群安装脚本bug 修改。
+4，静态信息库小bug 修改。
+5，南昌集群升级过程，数据迁移工具和方案规划。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，静态信息库新增1个属性和三个接口。
+2，集群数据迁移方案功能完善，还差一个Hbase 数据导出工具。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2614,7 +2636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,6 +2778,9 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,9 +2805,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2791,6 +2813,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3156,14 +3181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -3186,14 +3211,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="103.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -4646,17 +4671,17 @@
       <c r="C2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="94.5" customHeight="1">
       <c r="A3" s="45" t="s">
@@ -4690,17 +4715,17 @@
       <c r="C4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="84" customHeight="1">
       <c r="A5" s="45" t="s">
@@ -4712,17 +4737,17 @@
       <c r="C5" s="46">
         <v>42912</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="53"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="44" t="s">
@@ -4734,17 +4759,17 @@
       <c r="C6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="89.25" customHeight="1">
       <c r="A7" s="45" t="s">
@@ -4756,17 +4781,17 @@
       <c r="C7" s="46">
         <v>42912</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="55" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="53"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="44" t="s">
@@ -4778,17 +4803,17 @@
       <c r="C8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" ht="90.75" customHeight="1">
       <c r="A9" s="45" t="s">
@@ -4800,17 +4825,17 @@
       <c r="C9" s="46">
         <v>42933</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="44" t="s">
@@ -4822,17 +4847,17 @@
       <c r="C10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" ht="77.25" customHeight="1">
       <c r="A11" s="45" t="s">
@@ -4844,17 +4869,17 @@
       <c r="C11" s="46">
         <v>42940</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="53"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="44" t="s">
@@ -4866,17 +4891,17 @@
       <c r="C12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="76.5" customHeight="1">
       <c r="A13" s="45" t="s">
@@ -4888,17 +4913,17 @@
       <c r="C13" s="46">
         <v>42947</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="53"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="44" t="s">
@@ -4910,17 +4935,17 @@
       <c r="C14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="103.5" customHeight="1">
       <c r="A15" s="45" t="s">
@@ -4932,17 +4957,17 @@
       <c r="C15" s="46">
         <v>42954</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="52" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
       <c r="A16" s="44" t="s">
@@ -4954,17 +4979,17 @@
       <c r="C16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="87" customHeight="1">
       <c r="A17" s="45" t="s">
@@ -4976,17 +5001,17 @@
       <c r="C17" s="46">
         <v>42961</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="44" t="s">
@@ -4998,17 +5023,17 @@
       <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10" ht="87.75" customHeight="1">
       <c r="A19" s="45" t="s">
@@ -5020,17 +5045,17 @@
       <c r="C19" s="46">
         <v>42968</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="18.75">
       <c r="A20" s="44" t="s">
@@ -5042,17 +5067,17 @@
       <c r="C20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" ht="93.75" customHeight="1">
       <c r="A21" s="45" t="s">
@@ -5064,17 +5089,17 @@
       <c r="C21" s="46">
         <v>42975</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="18.75">
       <c r="A22" s="44" t="s">
@@ -5086,17 +5111,17 @@
       <c r="C22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" ht="113.25" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -5108,17 +5133,17 @@
       <c r="C23" s="46">
         <v>42988</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="52" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="53"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
       <c r="A24" s="44" t="s">
@@ -5130,17 +5155,17 @@
       <c r="C24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51" t="s">
+      <c r="E24" s="52"/>
+      <c r="F24" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10" ht="97.5" customHeight="1">
       <c r="A25" s="45" t="s">
@@ -5152,17 +5177,17 @@
       <c r="C25" s="46">
         <v>42989</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="52" t="s">
+      <c r="E25" s="54"/>
+      <c r="F25" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="53"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="18.75">
       <c r="A26" s="44" t="s">
@@ -5174,17 +5199,17 @@
       <c r="C26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10" ht="166.5" customHeight="1">
       <c r="A27" s="45" t="s">
@@ -5196,17 +5221,17 @@
       <c r="C27" s="46">
         <v>42989</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52" t="s">
+      <c r="E27" s="54"/>
+      <c r="F27" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="53"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="44" t="s">
@@ -5218,17 +5243,17 @@
       <c r="C28" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="1:10" ht="107.25" customHeight="1">
       <c r="A29" s="45" t="s">
@@ -5240,17 +5265,17 @@
       <c r="C29" s="46">
         <v>43003</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="52" t="s">
+      <c r="E29" s="54"/>
+      <c r="F29" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="53"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="44" t="s">
@@ -5262,17 +5287,17 @@
       <c r="C30" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51" t="s">
+      <c r="E30" s="52"/>
+      <c r="F30" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:10" ht="78.75" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -5284,17 +5309,17 @@
       <c r="C31" s="46">
         <v>43024</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="54"/>
+      <c r="F31" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="53"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:10" ht="18.75">
       <c r="A32" s="44" t="s">
@@ -5306,17 +5331,17 @@
       <c r="C32" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51" t="s">
+      <c r="E32" s="52"/>
+      <c r="F32" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
     </row>
     <row r="33" spans="1:10" ht="111" customHeight="1">
       <c r="A33" s="45" t="s">
@@ -5328,17 +5353,17 @@
       <c r="C33" s="46">
         <v>43045</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="52" t="s">
+      <c r="E33" s="54"/>
+      <c r="F33" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="53"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="44" t="s">
@@ -5350,17 +5375,17 @@
       <c r="C34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51" t="s">
+      <c r="E34" s="52"/>
+      <c r="F34" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
     </row>
     <row r="35" spans="1:10" ht="82.5" customHeight="1">
       <c r="A35" s="45" t="s">
@@ -5372,17 +5397,17 @@
       <c r="C35" s="46">
         <v>43052</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="54"/>
+      <c r="F35" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="53"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="44" t="s">
@@ -5394,17 +5419,17 @@
       <c r="C36" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51" t="s">
+      <c r="E36" s="52"/>
+      <c r="F36" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" ht="74.25" customHeight="1">
       <c r="A37" s="45" t="s">
@@ -5416,56 +5441,41 @@
       <c r="C37" s="46">
         <v>43052</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="52" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="53"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="D13:E13"/>
@@ -5482,27 +5492,42 @@
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5514,9 +5539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3747"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5530,14 +5555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="40" t="s">
@@ -5560,14 +5585,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="134.25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5670,22 +5695,22 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" ht="67.5">
       <c r="A11" s="1" t="s">
@@ -5788,22 +5813,22 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="90.75" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -5946,14 +5971,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:6" ht="132.75" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -24159,10 +24184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24196,17 +24221,17 @@
       <c r="C2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="129" customHeight="1">
       <c r="A3" s="45" t="s">
@@ -24240,17 +24265,17 @@
       <c r="C4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="171" customHeight="1">
       <c r="A5" s="45" t="s">
@@ -24284,17 +24309,17 @@
       <c r="C6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="276" customHeight="1">
       <c r="A7" s="45" t="s">
@@ -24328,17 +24353,17 @@
       <c r="C8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" ht="152.25" customHeight="1">
       <c r="A9" s="45" t="s">
@@ -24372,17 +24397,17 @@
       <c r="C10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" ht="151.5" customHeight="1">
       <c r="A11" s="45" t="s">
@@ -24416,17 +24441,17 @@
       <c r="C12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="132.75" customHeight="1">
       <c r="A13" s="45" t="s">
@@ -24460,17 +24485,17 @@
       <c r="C14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="111.75" customHeight="1">
       <c r="A15" s="45" t="s">
@@ -24494,23 +24519,56 @@
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
     </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="86.25" customHeight="1">
+      <c r="A17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="46">
+        <v>43189</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
+  <mergeCells count="33">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -24525,6 +24583,21 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
